--- a/ace_import_tmpl.xlsx
+++ b/ace_import_tmpl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtoerpe/Projects/aws-partner-custom-crm-connector/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schabert/projects/aws-partner-custom-crm-connector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46109161-8DCA-7C43-95A0-C6D38A3953D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0DCF6-A846-3C44-ADF0-D970E6D02C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29100" yWindow="2260" windowWidth="37840" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29100" yWindow="2260" windowWidth="37840" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="48" r:id="rId1"/>
@@ -34,12 +34,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="1196">
   <si>
     <t>Mandatory</t>
   </si>
@@ -3566,9 +3577,6 @@
   </si>
   <si>
     <t>Revenue</t>
-  </si>
-  <si>
-    <t>This description is not long enough</t>
   </si>
   <si>
     <t>Supported Target Field</t>
@@ -5073,7 +5081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DD5BAC-F28E-1F44-B294-3ABD4AFB0C93}">
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5091,7 +5099,7 @@
     </row>
     <row r="2" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="84" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -5103,7 +5111,7 @@
     </row>
     <row r="3" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="84" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C3" s="84"/>
       <c r="D3" s="84"/>
@@ -5115,7 +5123,7 @@
     </row>
     <row r="4" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
@@ -5127,7 +5135,7 @@
     </row>
     <row r="5" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="84" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="84"/>
@@ -5139,7 +5147,7 @@
     </row>
     <row r="6" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C6" s="84"/>
       <c r="D6" s="84"/>
@@ -5151,7 +5159,7 @@
     </row>
     <row r="7" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="84" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="84"/>
@@ -5163,7 +5171,7 @@
     </row>
     <row r="8" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="84" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
@@ -5175,7 +5183,7 @@
     </row>
     <row r="9" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="84" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="84"/>
@@ -5187,7 +5195,7 @@
     </row>
     <row r="10" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="84" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C10" s="84"/>
       <c r="D10" s="84"/>
@@ -5199,7 +5207,7 @@
     </row>
     <row r="11" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B11" s="84" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C11" s="84"/>
       <c r="D11" s="84"/>
@@ -5211,7 +5219,7 @@
     </row>
     <row r="12" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="84" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C12" s="84"/>
       <c r="D12" s="84"/>
@@ -5223,7 +5231,7 @@
     </row>
     <row r="13" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="84" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C13" s="84"/>
       <c r="D13" s="84"/>
@@ -5235,7 +5243,7 @@
     </row>
     <row r="14" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B14" s="84" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C14" s="84"/>
       <c r="D14" s="84"/>
@@ -9033,8 +9041,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="C6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9055,7 +9063,7 @@
         <v>1080</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>1081</v>
@@ -9079,59 +9087,59 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="str">
         <f ca="1">"The_first_"&amp;FIXED(RAND()*100,5,TRUE)*100000</f>
-        <v>The_first_5749938</v>
+        <v>The_first_2362583</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C2" s="29" t="str">
         <f ca="1">"Monday_"&amp;FIXED(RAND()*100,5,TRUE)*100000</f>
-        <v>Monday_9149197</v>
+        <v>Monday_5368482</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E2" s="29">
         <f ca="1">RANDBETWEEN(100,10000)</f>
-        <v>8301</v>
+        <v>3849</v>
       </c>
       <c r="F2" s="62">
         <v>45284</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H2" s="77" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="str">
         <f ca="1">"The_second_"&amp;FIXED(RAND()*100,5,TRUE)*100000</f>
-        <v>The_second_42849</v>
+        <v>The_second_4252378</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C3" s="29" t="str">
         <f ca="1">"Tuesday_"&amp;FIXED(RAND()*100,5,TRUE)*100000</f>
-        <v>Tuesday_1511392</v>
+        <v>Tuesday_8257121</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>1166</v>
       </c>
       <c r="E3" s="29">
         <f ca="1">RANDBETWEEN(100,10000)</f>
-        <v>160</v>
+        <v>6889</v>
       </c>
       <c r="F3" s="62">
         <v>45284</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
   </sheetData>
@@ -9149,7 +9157,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9164,7 +9172,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="74" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B1" s="74" t="s">
         <v>1163</v>
@@ -9173,7 +9181,7 @@
         <v>1164</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E1" s="75" t="s">
         <v>1158</v>
@@ -9286,7 +9294,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="29" t="b">
@@ -9696,7 +9704,7 @@
         <v>196</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -9710,7 +9718,7 @@
         <v>215</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -9734,10 +9742,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EAABB6-94CA-554E-A1CF-FD4AB30F9F99}">
   <dimension ref="A1:AS200"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M5" sqref="M5"/>
-      <selection pane="bottomLeft" activeCell="AR4" sqref="AR4"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10234,13 +10242,13 @@
         <v>1079</v>
       </c>
       <c r="AS3" s="81" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(A$2=0,VLOOKUP(A$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(A$2,Source!$A$1:$Z$1,0))))</f>
-        <v>Monday_9149197</v>
+        <v>Monday_5368482</v>
       </c>
       <c r="B4" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(B$2=0,VLOOKUP(B$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(B$2,Source!$A$1:$Z$1,0))))</f>
@@ -10248,11 +10256,11 @@
       </c>
       <c r="C4" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(C$2=0,VLOOKUP(C$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(C$2,Source!$A$1:$Z$1,0))))</f>
-        <v>This description is not long enough</v>
+        <v>This description is long enough cause i want it. I know it is tough to provide long texts</v>
       </c>
       <c r="D4" s="50">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(D$2=0,VLOOKUP(D$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(D$2,Source!$A$1:$Z$1,0))))</f>
-        <v>8301</v>
+        <v>3849</v>
       </c>
       <c r="E4" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(E$2=0,VLOOKUP(E$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(E$2,Source!$A$1:$Z$1,0))))</f>
@@ -10308,7 +10316,7 @@
       </c>
       <c r="AR4" s="60" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(AR$2=0,VLOOKUP(AR$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(AR$2,Source!$A$1:$Z$1,0))))</f>
-        <v>The_first_5749938</v>
+        <v>The_first_2362583</v>
       </c>
       <c r="AS4" s="60">
         <f>IF(ISBLANK(Source!B2),"",IF(AS$2=0,VLOOKUP(AS$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(AS$2,Source!$A$1:$Z$1,0))))</f>
@@ -10318,7 +10326,7 @@
     <row r="5" spans="1:45" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(A$2=0,VLOOKUP(A$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(A$2,Source!$A$1:$Z$1,0))))</f>
-        <v>Tuesday_1511392</v>
+        <v>Tuesday_8257121</v>
       </c>
       <c r="B5" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(B$2=0,VLOOKUP(B$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(B$2,Source!$A$1:$Z$1,0))))</f>
@@ -10330,7 +10338,7 @@
       </c>
       <c r="D5" s="50">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(D$2=0,VLOOKUP(D$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(D$2,Source!$A$1:$Z$1,0))))</f>
-        <v>160</v>
+        <v>6889</v>
       </c>
       <c r="E5" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(E$2=0,VLOOKUP(E$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(E$2,Source!$A$1:$Z$1,0))))</f>
@@ -10386,7 +10394,7 @@
       </c>
       <c r="AR5" s="60" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(AR$2=0,VLOOKUP(AR$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(AR$2,Source!$A$1:$Z$1,0))))</f>
-        <v>The_second_42849</v>
+        <v>The_second_4252378</v>
       </c>
       <c r="AS5" s="60">
         <f>IF(ISBLANK(Source!B3),"",IF(AS$2=0,VLOOKUP(AS$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(AS$2,Source!$A$1:$Z$1,0))))</f>
@@ -18558,27 +18566,27 @@
   <sheetData>
     <row r="2" spans="2:2" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="83" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
   </sheetData>

--- a/ace_import_tmpl.xlsx
+++ b/ace_import_tmpl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schabert/projects/aws-partner-custom-crm-connector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0DCF6-A846-3C44-ADF0-D970E6D02C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B23B0-D1E6-D341-AA3D-E061B6FFFA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29100" yWindow="2260" windowWidth="37840" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="1197">
   <si>
     <t>Mandatory</t>
   </si>
@@ -3571,9 +3571,6 @@
   </si>
   <si>
     <t>min. 50 char</t>
-  </si>
-  <si>
-    <t>This description is long enough cause i want it. I know it is tough to provide long texts</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -3749,6 +3746,12 @@
       </rPr>
       <t xml:space="preserve"> attributes:</t>
     </r>
+  </si>
+  <si>
+    <t>This description is long enough cause i want it. I know it is tough to provide long texts. true</t>
+  </si>
+  <si>
+    <t>This description is long enough cause i want it. I know it is tough to provide long texts.true</t>
   </si>
 </sst>
 </file>
@@ -5099,7 +5102,7 @@
     </row>
     <row r="2" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="84" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -5111,7 +5114,7 @@
     </row>
     <row r="3" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="84" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C3" s="84"/>
       <c r="D3" s="84"/>
@@ -5123,7 +5126,7 @@
     </row>
     <row r="4" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="84" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C4" s="84"/>
       <c r="D4" s="84"/>
@@ -5135,7 +5138,7 @@
     </row>
     <row r="5" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C5" s="84"/>
       <c r="D5" s="84"/>
@@ -5147,7 +5150,7 @@
     </row>
     <row r="6" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B6" s="84" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C6" s="84"/>
       <c r="D6" s="84"/>
@@ -5159,7 +5162,7 @@
     </row>
     <row r="7" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="84" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="84"/>
@@ -5171,7 +5174,7 @@
     </row>
     <row r="8" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="84" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
@@ -5183,7 +5186,7 @@
     </row>
     <row r="9" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="84" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="84"/>
@@ -5195,7 +5198,7 @@
     </row>
     <row r="10" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B10" s="84" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C10" s="84"/>
       <c r="D10" s="84"/>
@@ -5207,7 +5210,7 @@
     </row>
     <row r="11" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B11" s="84" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C11" s="84"/>
       <c r="D11" s="84"/>
@@ -5219,7 +5222,7 @@
     </row>
     <row r="12" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B12" s="84" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C12" s="84"/>
       <c r="D12" s="84"/>
@@ -5231,7 +5234,7 @@
     </row>
     <row r="13" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B13" s="84" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C13" s="84"/>
       <c r="D13" s="84"/>
@@ -5243,7 +5246,7 @@
     </row>
     <row r="14" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B14" s="84" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C14" s="84"/>
       <c r="D14" s="84"/>
@@ -9042,7 +9045,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="C6" sqref="B6:C6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9063,7 +9066,7 @@
         <v>1080</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C1" s="32" t="s">
         <v>1081</v>
@@ -9072,7 +9075,7 @@
         <v>801</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="32" t="s">
         <v>1156</v>
@@ -9087,59 +9090,59 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="str">
         <f ca="1">"The_first_"&amp;FIXED(RAND()*100,5,TRUE)*100000</f>
-        <v>The_first_2362583</v>
+        <v>The_first_6067276</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C2" s="29" t="str">
         <f ca="1">"Monday_"&amp;FIXED(RAND()*100,5,TRUE)*100000</f>
-        <v>Monday_5368482</v>
+        <v>Monday_2635763</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>1166</v>
+        <v>1195</v>
       </c>
       <c r="E2" s="29">
         <f ca="1">RANDBETWEEN(100,10000)</f>
-        <v>3849</v>
+        <v>5690</v>
       </c>
       <c r="F2" s="62">
         <v>45284</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H2" s="77" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="str">
         <f ca="1">"The_second_"&amp;FIXED(RAND()*100,5,TRUE)*100000</f>
-        <v>The_second_4252378</v>
+        <v>The_second_5484343</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C3" s="29" t="str">
         <f ca="1">"Tuesday_"&amp;FIXED(RAND()*100,5,TRUE)*100000</f>
-        <v>Tuesday_8257121</v>
+        <v>Tuesday_6891094</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>1166</v>
+        <v>1196</v>
       </c>
       <c r="E3" s="29">
         <f ca="1">RANDBETWEEN(100,10000)</f>
-        <v>6889</v>
+        <v>7144</v>
       </c>
       <c r="F3" s="62">
         <v>45284</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
@@ -9172,7 +9175,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="74" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B1" s="74" t="s">
         <v>1163</v>
@@ -9181,7 +9184,7 @@
         <v>1164</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E1" s="75" t="s">
         <v>1158</v>
@@ -9294,7 +9297,7 @@
         <v>58</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="29" t="b">
@@ -9366,7 +9369,7 @@
         <v>96</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="29" t="b">
@@ -9704,7 +9707,7 @@
         <v>196</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -9718,7 +9721,7 @@
         <v>215</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -10242,13 +10245,13 @@
         <v>1079</v>
       </c>
       <c r="AS3" s="81" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(A$2=0,VLOOKUP(A$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(A$2,Source!$A$1:$Z$1,0))))</f>
-        <v>Monday_5368482</v>
+        <v>Monday_2635763</v>
       </c>
       <c r="B4" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(B$2=0,VLOOKUP(B$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(B$2,Source!$A$1:$Z$1,0))))</f>
@@ -10256,11 +10259,11 @@
       </c>
       <c r="C4" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(C$2=0,VLOOKUP(C$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(C$2,Source!$A$1:$Z$1,0))))</f>
-        <v>This description is long enough cause i want it. I know it is tough to provide long texts</v>
+        <v>This description is long enough cause i want it. I know it is tough to provide long texts. true</v>
       </c>
       <c r="D4" s="50">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(D$2=0,VLOOKUP(D$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(D$2,Source!$A$1:$Z$1,0))))</f>
-        <v>3849</v>
+        <v>5690</v>
       </c>
       <c r="E4" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(E$2=0,VLOOKUP(E$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(E$2,Source!$A$1:$Z$1,0))))</f>
@@ -10316,7 +10319,7 @@
       </c>
       <c r="AR4" s="60" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(AR$2=0,VLOOKUP(AR$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(AR$2,Source!$A$1:$Z$1,0))))</f>
-        <v>The_first_2362583</v>
+        <v>The_first_6067276</v>
       </c>
       <c r="AS4" s="60">
         <f>IF(ISBLANK(Source!B2),"",IF(AS$2=0,VLOOKUP(AS$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(AS$2,Source!$A$1:$Z$1,0))))</f>
@@ -10326,7 +10329,7 @@
     <row r="5" spans="1:45" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(A$2=0,VLOOKUP(A$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(A$2,Source!$A$1:$Z$1,0))))</f>
-        <v>Tuesday_8257121</v>
+        <v>Tuesday_6891094</v>
       </c>
       <c r="B5" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(B$2=0,VLOOKUP(B$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(B$2,Source!$A$1:$Z$1,0))))</f>
@@ -10334,11 +10337,11 @@
       </c>
       <c r="C5" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(C$2=0,VLOOKUP(C$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(C$2,Source!$A$1:$Z$1,0))))</f>
-        <v>This description is long enough cause i want it. I know it is tough to provide long texts</v>
+        <v>This description is long enough cause i want it. I know it is tough to provide long texts.true</v>
       </c>
       <c r="D5" s="50">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(D$2=0,VLOOKUP(D$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(D$2,Source!$A$1:$Z$1,0))))</f>
-        <v>6889</v>
+        <v>7144</v>
       </c>
       <c r="E5" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(E$2=0,VLOOKUP(E$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(E$2,Source!$A$1:$Z$1,0))))</f>
@@ -10394,7 +10397,7 @@
       </c>
       <c r="AR5" s="60" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(AR$2=0,VLOOKUP(AR$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(AR$2,Source!$A$1:$Z$1,0))))</f>
-        <v>The_second_4252378</v>
+        <v>The_second_5484343</v>
       </c>
       <c r="AS5" s="60">
         <f>IF(ISBLANK(Source!B3),"",IF(AS$2=0,VLOOKUP(AS$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(AS$2,Source!$A$1:$Z$1,0))))</f>
@@ -18566,27 +18569,27 @@
   <sheetData>
     <row r="2" spans="2:2" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="83" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
   </sheetData>

--- a/ace_import_tmpl.xlsx
+++ b/ace_import_tmpl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schabert/projects/aws-partner-custom-crm-connector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544B23B0-D1E6-D341-AA3D-E061B6FFFA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C575C046-19B0-C247-90E2-67EF0CDE360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29100" yWindow="2260" windowWidth="37840" windowHeight="20080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3748,10 +3748,10 @@
     </r>
   </si>
   <si>
-    <t>This description is long enough cause i want it. I know it is tough to provide long texts. true</t>
-  </si>
-  <si>
-    <t>This description is long enough cause i want it. I know it is tough to provide long texts.true</t>
+    <t xml:space="preserve">This description is long enough cause i want it. I know it is tough to provide long texts. </t>
+  </si>
+  <si>
+    <t>This description is long enough cause i want it. I know it is tough to provide long texts.</t>
   </si>
 </sst>
 </file>
@@ -9045,7 +9045,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9090,21 +9090,21 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="str">
         <f ca="1">"The_first_"&amp;FIXED(RAND()*100,5,TRUE)*100000</f>
-        <v>The_first_6067276</v>
+        <v>The_first_3230369</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>1180</v>
       </c>
       <c r="C2" s="29" t="str">
         <f ca="1">"Monday_"&amp;FIXED(RAND()*100,5,TRUE)*100000</f>
-        <v>Monday_2635763</v>
+        <v>Monday_9320582</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>1195</v>
       </c>
       <c r="E2" s="29">
         <f ca="1">RANDBETWEEN(100,10000)</f>
-        <v>5690</v>
+        <v>8128</v>
       </c>
       <c r="F2" s="62">
         <v>45284</v>
@@ -9119,21 +9119,21 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="str">
         <f ca="1">"The_second_"&amp;FIXED(RAND()*100,5,TRUE)*100000</f>
-        <v>The_second_5484343</v>
+        <v>The_second_1688195</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>1181</v>
       </c>
       <c r="C3" s="29" t="str">
         <f ca="1">"Tuesday_"&amp;FIXED(RAND()*100,5,TRUE)*100000</f>
-        <v>Tuesday_6891094</v>
+        <v>Tuesday_2542882</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>1196</v>
       </c>
       <c r="E3" s="29">
         <f ca="1">RANDBETWEEN(100,10000)</f>
-        <v>7144</v>
+        <v>7927</v>
       </c>
       <c r="F3" s="62">
         <v>45284</v>
@@ -10251,7 +10251,7 @@
     <row r="4" spans="1:45" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(A$2=0,VLOOKUP(A$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(A$2,Source!$A$1:$Z$1,0))))</f>
-        <v>Monday_2635763</v>
+        <v>Monday_9320582</v>
       </c>
       <c r="B4" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(B$2=0,VLOOKUP(B$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(B$2,Source!$A$1:$Z$1,0))))</f>
@@ -10259,11 +10259,11 @@
       </c>
       <c r="C4" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(C$2=0,VLOOKUP(C$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(C$2,Source!$A$1:$Z$1,0))))</f>
-        <v>This description is long enough cause i want it. I know it is tough to provide long texts. true</v>
+        <v xml:space="preserve">This description is long enough cause i want it. I know it is tough to provide long texts. </v>
       </c>
       <c r="D4" s="50">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(D$2=0,VLOOKUP(D$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(D$2,Source!$A$1:$Z$1,0))))</f>
-        <v>5690</v>
+        <v>8128</v>
       </c>
       <c r="E4" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(E$2=0,VLOOKUP(E$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(E$2,Source!$A$1:$Z$1,0))))</f>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="AR4" s="60" t="str">
         <f ca="1">IF(ISBLANK(Source!A2),"",IF(AR$2=0,VLOOKUP(AR$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(AR$2,Source!$A$1:$Z$1,0))))</f>
-        <v>The_first_6067276</v>
+        <v>The_first_3230369</v>
       </c>
       <c r="AS4" s="60">
         <f>IF(ISBLANK(Source!B2),"",IF(AS$2=0,VLOOKUP(AS$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(AS$2,Source!$A$1:$Z$1,0))))</f>
@@ -10329,7 +10329,7 @@
     <row r="5" spans="1:45" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(A$2=0,VLOOKUP(A$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(A$2,Source!$A$1:$Z$1,0))))</f>
-        <v>Tuesday_6891094</v>
+        <v>Tuesday_2542882</v>
       </c>
       <c r="B5" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(B$2=0,VLOOKUP(B$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(B$2,Source!$A$1:$Z$1,0))))</f>
@@ -10337,11 +10337,11 @@
       </c>
       <c r="C5" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(C$2=0,VLOOKUP(C$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(C$2,Source!$A$1:$Z$1,0))))</f>
-        <v>This description is long enough cause i want it. I know it is tough to provide long texts.true</v>
+        <v>This description is long enough cause i want it. I know it is tough to provide long texts.</v>
       </c>
       <c r="D5" s="50">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(D$2=0,VLOOKUP(D$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(D$2,Source!$A$1:$Z$1,0))))</f>
-        <v>7144</v>
+        <v>7927</v>
       </c>
       <c r="E5" s="50" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(E$2=0,VLOOKUP(E$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(E$2,Source!$A$1:$Z$1,0))))</f>
@@ -10397,7 +10397,7 @@
       </c>
       <c r="AR5" s="60" t="str">
         <f ca="1">IF(ISBLANK(Source!A3),"",IF(AR$2=0,VLOOKUP(AR$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(AR$2,Source!$A$1:$Z$1,0))))</f>
-        <v>The_second_5484343</v>
+        <v>The_second_1688195</v>
       </c>
       <c r="AS5" s="60">
         <f>IF(ISBLANK(Source!B3),"",IF(AS$2=0,VLOOKUP(AS$1,'Field Mapping'!$A$2:$C$20,3,FALSE),INDEX(Source!$A$1:$Z$999,ROW()-2,MATCH(AS$2,Source!$A$1:$Z$1,0))))</f>
